--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -802,4 +803,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -906,7 +907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,17 +918,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -937,14 +958,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -953,14 +1048,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="4">
@@ -969,14 +1064,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -985,13 +1080,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1143,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -1064,14 +1159,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -1080,14 +1175,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -1096,13 +1191,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.28</v>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1143,14 +1186,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -1159,14 +1292,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="5">
@@ -1175,14 +1308,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="6">
@@ -1191,14 +1324,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1340,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.46</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,129 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -610,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -650,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.18</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3982</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -688,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.07</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0081</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -782,22 +798,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3604</t>
+          <t>0.2771</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -836,7 +852,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -876,22 +892,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2319</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -930,7 +946,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -970,22 +986,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2188</t>
+          <t>0.2319</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1024,7 +1040,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1064,22 +1080,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>93.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.3604</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1118,7 +1134,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1158,26 +1174,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>95.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3374</t>
+          <t>0.3982</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1196,26 +1212,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>92.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0081</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1229,144 +1245,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.46</v>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
+          <t>华安国际龙头（DAX）ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3374</t>
+          <t>0.3097</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -798,26 +815,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -892,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2188</t>
+          <t>0.2771</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +1001,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -986,22 +1041,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2319</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1080,26 +1135,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3604</t>
+          <t>0.2319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1108,6 +1163,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1239,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/DTE-德国电信.xlsx
+++ b/数据整理/stocks/其他/DTE-德国电信.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,166 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -622,7 +771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,64 +832,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.57</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3097</t>
+          <t>0.2451</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.47</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -810,27 +921,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
+          <t>华安国际龙头（DAX）ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.39</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.10</t>
+          <t>93.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>5.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3374</t>
+          <t>0.3097</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -853,26 +964,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -947,26 +1058,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.49</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>87.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2771</t>
+          <t>0.3374</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根欧洲动力策略股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1041,26 +1190,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.18</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.58</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2188</t>
+          <t>0.2771</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1244,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1135,22 +1284,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>88.58</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2319</t>
+          <t>0.2188</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1229,26 +1378,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>92.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3604</t>
+          <t>0.2319</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1257,6 +1406,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安国际龙头(DAX)ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1386,136 +1629,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>513030</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安国际龙头(DAX)ETFQDII</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.53</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.88</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4496</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006282</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根欧洲动力策略股票（QDII）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>